--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:07:51+00:00</t>
+    <t>2025-10-22T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:21:04+00:00</t>
+    <t>2025-11-06T10:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:11:54+00:00</t>
+    <t>2025-11-07T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:50:39+00:00</t>
+    <t>2025-11-07T17:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:06:48+00:00</t>
+    <t>2025-11-07T17:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:36:51+00:00</t>
+    <t>2025-11-29T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T07:55:08+00:00</t>
+    <t>2025-12-05T17:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T17:11:23+00:00</t>
+    <t>2025-12-09T22:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T22:51:13+00:00</t>
+    <t>2025-12-17T08:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T17:17:04+00:00</t>
+    <t>2025-12-29T08:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:10:54+00:00</t>
+    <t>2026-01-09T10:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:08:27+00:00</t>
+    <t>2026-01-12T10:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:02:26+00:00</t>
+    <t>2026-01-21T08:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:47:55+00:00</t>
+    <t>2026-01-28T09:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T09:35:28+00:00</t>
+    <t>2026-01-28T10:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>17</t>
+    <t>14</t>
   </si>
   <si>
     <t>Level</t>
@@ -144,18 +144,18 @@
     <t>1</t>
   </si>
   <si>
+    <t>GHT</t>
+  </si>
+  <si>
+    <t>Groupement hospitalier de territoire</t>
+  </si>
+  <si>
     <t>LEGAL-ENTITY</t>
   </si>
   <si>
     <t>Entité légale</t>
   </si>
   <si>
-    <t>GHT</t>
-  </si>
-  <si>
-    <t>Groupement hospitalier de territoire</t>
-  </si>
-  <si>
     <t>GEOGRAPHICAL-ENTITY</t>
   </si>
   <si>
@@ -168,82 +168,64 @@
     <t>Groupe privé/hospitalier</t>
   </si>
   <si>
-    <t>HEBERGEMENT</t>
-  </si>
-  <si>
-    <t>Hébergement</t>
-  </si>
-  <si>
-    <t>SOIN</t>
-  </si>
-  <si>
-    <t>Soin</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIF</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>MEDICAL</t>
-  </si>
-  <si>
-    <t>Médical</t>
-  </si>
-  <si>
-    <t>TECHNIQUE</t>
-  </si>
-  <si>
-    <t>Technique</t>
-  </si>
-  <si>
-    <t>MEDICOTEC</t>
-  </si>
-  <si>
-    <t>medico technique (radio, scanner …)</t>
+    <t>STRUCT-INTERNE</t>
+  </si>
+  <si>
+    <t>Structure interne</t>
+  </si>
+  <si>
+    <t>SECTEUR</t>
+  </si>
+  <si>
+    <t>Secteur</t>
+  </si>
+  <si>
+    <t>DEPARTEMENT</t>
+  </si>
+  <si>
+    <t>Département</t>
+  </si>
+  <si>
+    <t>SERVICE</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>Unité médicale</t>
+  </si>
+  <si>
+    <t>UAC</t>
+  </si>
+  <si>
+    <t>Unité d'activité</t>
+  </si>
+  <si>
+    <t>POLE</t>
+  </si>
+  <si>
+    <t>Pôle</t>
+  </si>
+  <si>
+    <t>CENTRE-RESP</t>
+  </si>
+  <si>
+    <t>Centre de responsabilité</t>
+  </si>
+  <si>
+    <t>CENTRE-ACTIVITE</t>
+  </si>
+  <si>
+    <t>Centre d'activité</t>
   </si>
   <si>
     <t>UF</t>
   </si>
   <si>
     <t>Unité fonctionnelle</t>
-  </si>
-  <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>UM</t>
-  </si>
-  <si>
-    <t>Unité médicale</t>
-  </si>
-  <si>
-    <t>UAC</t>
-  </si>
-  <si>
-    <t>Unité d'activité</t>
-  </si>
-  <si>
-    <t>POLE</t>
-  </si>
-  <si>
-    <t>Pôle</t>
-  </si>
-  <si>
-    <t>CENTRE-RESP</t>
-  </si>
-  <si>
-    <t>Centre de responsabilité</t>
-  </si>
-  <si>
-    <t>CENTRE-ACTIVITE</t>
-  </si>
-  <si>
-    <t>Centre d'activité</t>
   </si>
 </sst>
 </file>
@@ -564,7 +546,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,9 +576,7 @@
       <c r="C2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -608,9 +588,7 @@
       <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -622,9 +600,7 @@
       <c r="C4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
@@ -636,9 +612,7 @@
       <c r="C5" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -650,9 +624,7 @@
       <c r="C6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>52</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
@@ -664,9 +636,7 @@
       <c r="C7" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>54</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
@@ -678,9 +648,7 @@
       <c r="C8" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="D8" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -692,9 +660,7 @@
       <c r="C9" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="D9" t="s" s="2">
-        <v>58</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
@@ -706,9 +672,7 @@
       <c r="C10" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="D10" t="s" s="2">
-        <v>60</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -720,9 +684,7 @@
       <c r="C11" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="D11" t="s" s="2">
-        <v>62</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
@@ -734,9 +696,7 @@
       <c r="C12" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="D12" t="s" s="2">
-        <v>64</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
@@ -748,9 +708,7 @@
       <c r="C13" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="D13" t="s" s="2">
-        <v>66</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -762,9 +720,7 @@
       <c r="C14" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="D14" t="s" s="2">
-        <v>68</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -776,51 +732,7 @@
       <c r="C15" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="D15" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-v2-3307.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
